--- a/docs/StructureDefinition-Condition-congenital-anomaly-of-newborn.xlsx
+++ b/docs/StructureDefinition-Condition-congenital-anomaly-of-newborn.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-13T11:56:10-05:00</t>
+    <t>2024-02-27T09:44:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Condition-congenital-anomaly-of-newborn.xlsx
+++ b/docs/StructureDefinition-Condition-congenital-anomaly-of-newborn.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T09:44:15-05:00</t>
+    <t>2024-03-05T09:43:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-Condition-congenital-anomaly-of-newborn.xlsx
+++ b/docs/StructureDefinition-Condition-congenital-anomaly-of-newborn.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-05T09:43:17-05:00</t>
+    <t>2024-05-01T14:05:02-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
